--- a/06-03-2023/data/output/xlsx/Causality for Text-to-Final correct/7.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Text-to-Final correct/7.xlsx
@@ -49,15 +49,12 @@
     <t>Causality</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0</t>
+    <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
@@ -67,42 +64,42 @@
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__9,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__9,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__10,pairs_of_parentheses__1,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__10,pairs_of_parentheses__1,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,pairs_of_parentheses__1,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_decimals__0,pairs_of_parentheses__0,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,pairs_of_parentheses__1,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,pairs_of_parentheses__0,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_decimals__1,pairs_of_parentheses__1,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__1,pairs_of_parentheses__1,pairs_of_parentheses__4</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__11</t>
   </si>
   <si>
@@ -127,27 +124,27 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_decimals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__1,num_of_decimals__2,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__19</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__2,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,pairs_of_parentheses__1,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,pairs_of_parentheses__1,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,pairs_of_parentheses__1,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
@@ -166,30 +163,30 @@
     <t>num_of_decimals__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
     <t>num_of_decimals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__9,num_of_decimals__11,num_of_decimals__12,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,pairs_of_parentheses__1,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__9,num_of_decimals__10,num_of_decimals__12,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__10,num_of_decimals__12,num_of_decimals__13,pairs_of_parentheses__1,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__12</t>
   </si>
   <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+    <t>num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,pairs_of_parentheses__1,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__13</t>
   </si>
   <si>
+    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,pairs_of_parentheses__1,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
     <t>num_of_decimals__14</t>
   </si>
   <si>
@@ -238,7 +235,7 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
+    <t>num_of_decimals__30</t>
   </si>
   <si>
     <t>num_of_equals__1</t>
@@ -268,12 +265,12 @@
     <t>num_of_equals__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,pairs_of_parentheses__0</t>
-  </si>
-  <si>
     <t>num_of_equals__10</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__5,num_of_adds_and_subs__6,pairs_of_parentheses__1</t>
+  </si>
+  <si>
     <t>num_of_equals__11</t>
   </si>
   <si>
@@ -283,7 +280,7 @@
     <t>num_of_equals__13</t>
   </si>
   <si>
-    <t>num_of_mults_and_divs__0</t>
+    <t>num_of_equals__14</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__1</t>
@@ -325,7 +322,7 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_unknowns__0</t>
+    <t>num_of_mults_and_divs__14</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
@@ -364,39 +361,39 @@
     <t>num_of_unknowns__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__9,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_unknowns__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_equals__10,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>pairs_of_parentheses__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,pairs_of_parentheses__0,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,pairs_of_parentheses__1,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>pairs_of_parentheses__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+    <t>num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,pairs_of_parentheses__1,pairs_of_parentheses__4,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>pairs_of_parentheses__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,pairs_of_parentheses__1,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__7</t>
   </si>
   <si>
@@ -419,6 +416,9 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
